--- a/tspi/ciclo-3/20095495.xlsx
+++ b/tspi/ciclo-3/20095495.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogi\Documents\GitHub\PPR\tspi\ciclo-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -83,16 +88,22 @@
   <si>
     <t>Definir la estrategía de desarrolo del ciclo #3 de TSPi.</t>
   </si>
+  <si>
+    <t>Consolidando las tácticas y vistas que vamos a utilizar en el documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Escribir mi reporte de rol y PEER evaluation.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -318,11 +329,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +415,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -624,7 +645,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013">
+    <row r="2" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1675,7 +1696,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013">
+    <row r="3" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2690,7 +2711,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
+    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3705,7 +3726,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013">
+    <row r="5" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4720,7 +4741,7 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013">
+    <row r="6" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5735,7 +5756,7 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013">
+    <row r="7" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6750,7 +6771,7 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013">
+    <row r="8" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -7765,7 +7786,7 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013">
+    <row r="9" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8780,7 +8801,7 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013">
+    <row r="10" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9795,7 +9816,7 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013">
+    <row r="11" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10810,7 +10831,7 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013">
+    <row r="12" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11825,7 +11846,7 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013">
+    <row r="13" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -12840,7 +12861,7 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013">
+    <row r="14" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -13855,7 +13876,7 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013">
+    <row r="15" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14870,7 +14891,7 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013">
+    <row r="16" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -15885,7 +15906,7 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013">
+    <row r="17" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -16900,7 +16921,7 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013">
+    <row r="18" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -16913,7 +16934,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:1013">
+    <row r="19" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -16926,7 +16947,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:1013">
+    <row r="20" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -16939,7 +16960,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:1013">
+    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -16952,7 +16973,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:1013">
+    <row r="22" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -16965,7 +16986,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:1013">
+    <row r="23" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -16989,14 +17010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17004,7 +17025,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17015,96 +17036,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>46</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>36</v>
       </c>
       <c r="B2" s="4">
         <f>SUMIF(logt!$G:$G,A2,logt!$F:$F)/60</f>
-        <v>0.45</v>
+        <v>0.21666666666666667</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4">
         <f>SUMIF(logt!$G:$G,A3,logt!$F:$F)/60</f>
-        <v>0.66666666666666663</v>
+        <v>0.45</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIF(logt!$G:$G,A4,logt!$F:$F)/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF(logt!$G:$G,A5,logt!$F:$F)/60</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="4"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17120,14 +17155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
@@ -17139,7 +17174,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17165,7 +17200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41938</v>
       </c>
@@ -17182,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F3" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F5" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="21">
@@ -17192,7 +17227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41938</v>
       </c>
@@ -17219,35 +17254,79 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="16"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>41939</v>
+      </c>
+      <c r="B4" s="21">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>41939</v>
+      </c>
+      <c r="B5" s="21">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="17"/>
@@ -17255,7 +17334,7 @@
       <c r="E9" s="22"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="17"/>
@@ -17264,7 +17343,7 @@
       <c r="F10" s="18"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="30"/>
       <c r="C11" s="17"/>
@@ -17272,7 +17351,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="30"/>
       <c r="C12" s="17"/>
@@ -17280,7 +17359,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -17288,7 +17367,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -17296,7 +17375,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -17304,7 +17383,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="C16" s="17"/>
@@ -17312,7 +17391,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1">
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
@@ -17322,7 +17401,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -17330,7 +17409,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -17338,7 +17417,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -17346,7 +17425,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -17354,7 +17433,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -17362,7 +17441,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -17370,7 +17449,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -17378,7 +17457,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -17386,7 +17465,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -17394,7 +17473,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -17402,7 +17481,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -17410,7 +17489,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -17418,7 +17497,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -17426,7 +17505,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -17434,7 +17513,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
@@ -17442,7 +17521,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="C35" s="17"/>

--- a/tspi/ciclo-3/20095495.xlsx
+++ b/tspi/ciclo-3/20095495.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogi\Documents\GitHub\PPR\tspi\ciclo-3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -92,18 +87,45 @@
     <t>Consolidando las tácticas y vistas que vamos a utilizar en el documento de arquitectura.</t>
   </si>
   <si>
-    <t>Escribir mi reporte de rol y PEER evaluation.</t>
+    <t>Elaborar el plan del ciclo #3 de TSPi.</t>
+  </si>
+  <si>
+    <t>Completar el mockup de la vista de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio global de la aplicación.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio local de la aplicación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -341,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -383,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,10 +437,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +471,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -645,7 +665,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,19 +701,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+    <row r="2" spans="1:1013" ht="25.5">
+      <c r="A2" s="8">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>6</v>
+      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1696,19 +1738,41 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+    <row r="3" spans="1:1013" ht="25.5">
+      <c r="A3" s="8">
+        <v>47</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>6</v>
+      </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2711,19 +2775,41 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+    <row r="4" spans="1:1013">
+      <c r="A4" s="8">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3726,19 +3812,41 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+    <row r="5" spans="1:1013" ht="25.5">
+      <c r="A5" s="8">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -4741,19 +4849,41 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:1013" ht="38.25">
+      <c r="A6" s="8">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6</v>
+      </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -5756,19 +5886,41 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:1013" ht="25.5">
+      <c r="A7" s="8">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -6771,19 +6923,41 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:1013" ht="25.5">
+      <c r="A8" s="8">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>6</v>
+      </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.5</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -7786,19 +7960,41 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+    <row r="9" spans="1:1013" ht="25.5">
+      <c r="A9" s="8">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -8801,19 +8997,41 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:1013" ht="25.5">
+      <c r="A10" s="8">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -9816,19 +10034,41 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="1:1013" ht="25.5">
+      <c r="A11" s="8">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6</v>
+      </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -10831,19 +11071,41 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="1:1013">
+      <c r="A12" s="8">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -11846,19 +12108,41 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:1013" ht="25.5">
+      <c r="A13" s="8">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -12861,7 +13145,7 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1013">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -13876,7 +14160,7 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1013">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14891,7 +15175,7 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1013">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -15906,7 +16190,7 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1013">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -16921,7 +17205,7 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1013">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -16934,7 +17218,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1013">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -16947,7 +17231,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1013">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -16960,7 +17244,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1013">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -16973,7 +17257,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1013">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -16986,7 +17270,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1013">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -17010,14 +17294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17025,7 +17309,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17036,7 +17320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>36</v>
       </c>
@@ -17048,7 +17332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>46</v>
       </c>
@@ -17060,7 +17344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>47</v>
       </c>
@@ -17072,77 +17356,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4">
-        <f>SUMIF(logt!$G:$G,A5,logt!$F:$F)/60</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C5" s="31">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:3" s="12" customFormat="1">
+      <c r="A7" s="31"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -17155,14 +17427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
@@ -17174,7 +17446,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17200,7 +17472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="23">
         <v>41938</v>
       </c>
@@ -17217,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F5" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F4" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="21">
@@ -17227,7 +17499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="23">
         <v>41938</v>
       </c>
@@ -17254,7 +17526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="23">
         <v>41939</v>
       </c>
@@ -17262,88 +17534,69 @@
         <v>6</v>
       </c>
       <c r="C4" s="14">
-        <v>0.94236111111111109</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4" s="14">
-        <v>0.96527777777777779</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="E4" s="21">
         <v>0</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>41939</v>
-      </c>
-      <c r="B5" s="21">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.67569444444444438</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
-        <v>36</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="5" spans="1:8">
+      <c r="A5" s="27"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="27"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="27"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
       <c r="F10" s="18"/>
-      <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="28"/>
       <c r="B11" s="30"/>
       <c r="C11" s="17"/>
@@ -17351,15 +17604,15 @@
       <c r="E11" s="22"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -17367,7 +17620,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -17375,7 +17628,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -17383,25 +17636,25 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18"/>
+    <row r="18" spans="1:8" s="12" customFormat="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -17409,7 +17662,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -17417,7 +17670,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -17425,7 +17678,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -17433,7 +17686,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -17441,7 +17694,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -17449,7 +17702,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -17457,7 +17710,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -17465,7 +17718,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -17473,7 +17726,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -17481,7 +17734,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -17489,7 +17742,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -17497,7 +17750,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -17505,7 +17758,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -17513,21 +17766,13 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
